--- a/Planilhas Tratadas/Planilha_Tratada_Tempo_Medio_Resposta.xlsx
+++ b/Planilhas Tratadas/Planilha_Tratada_Tempo_Medio_Resposta.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Tempo de resposta</t>
+          <t>Tempo médio de resposta</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>134.6666666666667</v>
+        <v>21.075</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>123</v>
+        <v>16.22222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.3090909090909</v>
+        <v>67.28205128205128</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.75</v>
+        <v>66.90909090909091</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.61538461538461</v>
+        <v>36.44444444444444</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.33333333333334</v>
+        <v>10.10714285714286</v>
       </c>
     </row>
   </sheetData>
